--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H2">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I2">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J2">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N2">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O2">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P2">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q2">
-        <v>2134.962885749795</v>
+        <v>5716.960416299101</v>
       </c>
       <c r="R2">
-        <v>19214.66597174816</v>
+        <v>51452.6437466919</v>
       </c>
       <c r="S2">
-        <v>0.007092061157678409</v>
+        <v>0.00745664087980234</v>
       </c>
       <c r="T2">
-        <v>0.007092061157678408</v>
+        <v>0.007456640879802339</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H3">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I3">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J3">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.995073</v>
       </c>
       <c r="O3">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P3">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q3">
-        <v>25.29002074350522</v>
+        <v>57.79141894197256</v>
       </c>
       <c r="R3">
-        <v>227.610186691547</v>
+        <v>520.122770477753</v>
       </c>
       <c r="S3">
-        <v>8.401006639930617E-05</v>
+        <v>7.537744283761547E-05</v>
       </c>
       <c r="T3">
-        <v>8.401006639930616E-05</v>
+        <v>7.537744283761546E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H4">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I4">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J4">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N4">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O4">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P4">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q4">
-        <v>611.1980003994234</v>
+        <v>1396.682890253754</v>
       </c>
       <c r="R4">
-        <v>5500.782003594812</v>
+        <v>12570.14601228379</v>
       </c>
       <c r="S4">
-        <v>0.002030318010311051</v>
+        <v>0.001821695792382019</v>
       </c>
       <c r="T4">
-        <v>0.002030318010311051</v>
+        <v>0.001821695792382018</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H5">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I5">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J5">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N5">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O5">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P5">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q5">
-        <v>75.22513815386901</v>
+        <v>105.1561340353175</v>
       </c>
       <c r="R5">
-        <v>677.026243384821</v>
+        <v>946.4052063178569</v>
       </c>
       <c r="S5">
-        <v>0.0002498878476731373</v>
+        <v>0.0001371553186854703</v>
       </c>
       <c r="T5">
-        <v>0.0002498878476731372</v>
+        <v>0.0001371553186854703</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H6">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I6">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J6">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N6">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O6">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P6">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q6">
-        <v>329.125170301466</v>
+        <v>847.1318982188184</v>
       </c>
       <c r="R6">
-        <v>2962.126532713194</v>
+        <v>7624.187083969366</v>
       </c>
       <c r="S6">
-        <v>0.00109330979563589</v>
+        <v>0.001104915529034252</v>
       </c>
       <c r="T6">
-        <v>0.00109330979563589</v>
+        <v>0.001104915529034251</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H7">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I7">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J7">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N7">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O7">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P7">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q7">
-        <v>819.0305457850989</v>
+        <v>4286.119721569014</v>
       </c>
       <c r="R7">
-        <v>7371.274912065889</v>
+        <v>38575.07749412112</v>
       </c>
       <c r="S7">
-        <v>0.002720709928723033</v>
+        <v>0.005590393006825822</v>
       </c>
       <c r="T7">
-        <v>0.002720709928723033</v>
+        <v>0.00559039300682582</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>286.50943</v>
       </c>
       <c r="I8">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J8">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N8">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O8">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P8">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q8">
-        <v>13423.92122208009</v>
+        <v>15730.41130168159</v>
       </c>
       <c r="R8">
-        <v>120815.2909987208</v>
+        <v>141573.7017151343</v>
       </c>
       <c r="S8">
-        <v>0.04459247086602813</v>
+        <v>0.0205172013494814</v>
       </c>
       <c r="T8">
-        <v>0.04459247086602813</v>
+        <v>0.0205172013494814</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>286.50943</v>
       </c>
       <c r="I9">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J9">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>4.995073</v>
       </c>
       <c r="O9">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P9">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q9">
         <v>159.0150575598211</v>
@@ -1013,10 +1013,10 @@
         <v>1431.13551803839</v>
       </c>
       <c r="S9">
-        <v>0.0005282267531362456</v>
+        <v>0.0002074036012780834</v>
       </c>
       <c r="T9">
-        <v>0.0005282267531362456</v>
+        <v>0.0002074036012780833</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>286.50943</v>
       </c>
       <c r="I10">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J10">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N10">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O10">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P10">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q10">
-        <v>3843.005357712937</v>
+        <v>3843.020542712728</v>
       </c>
       <c r="R10">
-        <v>34587.04821941644</v>
+        <v>34587.18488441455</v>
       </c>
       <c r="S10">
-        <v>0.01276594980086227</v>
+        <v>0.005012458018602567</v>
       </c>
       <c r="T10">
-        <v>0.01276594980086227</v>
+        <v>0.005012458018602567</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>286.50943</v>
       </c>
       <c r="I11">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J11">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N11">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O11">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P11">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q11">
-        <v>472.99010921353</v>
+        <v>289.3406843528789</v>
       </c>
       <c r="R11">
-        <v>4256.91098292177</v>
+        <v>2604.06615917591</v>
       </c>
       <c r="S11">
-        <v>0.00157120988093489</v>
+        <v>0.0003773875307907651</v>
       </c>
       <c r="T11">
-        <v>0.00157120988093489</v>
+        <v>0.000377387530790765</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>286.50943</v>
       </c>
       <c r="I12">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J12">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N12">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O12">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P12">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q12">
-        <v>2069.42724289042</v>
+        <v>2330.912270752217</v>
       </c>
       <c r="R12">
-        <v>18624.84518601378</v>
+        <v>20978.21043676995</v>
       </c>
       <c r="S12">
-        <v>0.006874360517414946</v>
+        <v>0.003040212710896361</v>
       </c>
       <c r="T12">
-        <v>0.006874360517414945</v>
+        <v>0.00304021271089636</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>286.50943</v>
       </c>
       <c r="I13">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J13">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N13">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O13">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P13">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q13">
-        <v>5149.78578713566</v>
+        <v>11793.40439655794</v>
       </c>
       <c r="R13">
-        <v>46348.07208422093</v>
+        <v>106140.6395690215</v>
       </c>
       <c r="S13">
-        <v>0.01710689960705451</v>
+        <v>0.01538215676370599</v>
       </c>
       <c r="T13">
-        <v>0.01710689960705451</v>
+        <v>0.01538215676370598</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H14">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I14">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J14">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N14">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O14">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P14">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q14">
-        <v>56517.95217443502</v>
+        <v>169344.6017144376</v>
       </c>
       <c r="R14">
-        <v>508661.5695699152</v>
+        <v>1524101.415429939</v>
       </c>
       <c r="S14">
-        <v>0.1877450779136454</v>
+        <v>0.2208764427190423</v>
       </c>
       <c r="T14">
-        <v>0.1877450779136454</v>
+        <v>0.2208764427190423</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H15">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I15">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J15">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.995073</v>
       </c>
       <c r="O15">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P15">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q15">
-        <v>669.491817591909</v>
+        <v>1711.865066502592</v>
       </c>
       <c r="R15">
-        <v>6025.42635832718</v>
+        <v>15406.78559852333</v>
       </c>
       <c r="S15">
-        <v>0.002223962274294796</v>
+        <v>0.002232788423581933</v>
       </c>
       <c r="T15">
-        <v>0.002223962274294796</v>
+        <v>0.002232788423581933</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H16">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I16">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J16">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N16">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O16">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P16">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q16">
-        <v>16179.98120072858</v>
+        <v>41371.75886281617</v>
       </c>
       <c r="R16">
-        <v>145619.8308065572</v>
+        <v>372345.8297653455</v>
       </c>
       <c r="S16">
-        <v>0.05374773349530816</v>
+        <v>0.05396125317332614</v>
       </c>
       <c r="T16">
-        <v>0.05374773349530816</v>
+        <v>0.05396125317332614</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H17">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I17">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J17">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N17">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O17">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P17">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q17">
-        <v>1991.402655696514</v>
+        <v>3114.876147344167</v>
       </c>
       <c r="R17">
-        <v>17922.62390126862</v>
+        <v>28033.8853260975</v>
       </c>
       <c r="S17">
-        <v>0.006615173274453833</v>
+        <v>0.004062738085362417</v>
       </c>
       <c r="T17">
-        <v>0.006615173274453831</v>
+        <v>0.004062738085362417</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H18">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I18">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J18">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N18">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O18">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P18">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q18">
-        <v>8712.788760244996</v>
+        <v>25093.266956067</v>
       </c>
       <c r="R18">
-        <v>78415.09884220496</v>
+        <v>225839.4026046031</v>
       </c>
       <c r="S18">
-        <v>0.02894271893625422</v>
+        <v>0.03272918938863843</v>
       </c>
       <c r="T18">
-        <v>0.02894271893625421</v>
+        <v>0.03272918938863843</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H19">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I19">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J19">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N19">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O19">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P19">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q19">
-        <v>21681.84258614251</v>
+        <v>126961.0394852744</v>
       </c>
       <c r="R19">
-        <v>195136.5832752826</v>
+        <v>1142649.355367469</v>
       </c>
       <c r="S19">
-        <v>0.07202418115014468</v>
+        <v>0.1655954927497903</v>
       </c>
       <c r="T19">
-        <v>0.07202418115014468</v>
+        <v>0.1655954927497903</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H20">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I20">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J20">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N20">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O20">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P20">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q20">
-        <v>5221.094171015306</v>
+        <v>7879.789540672383</v>
       </c>
       <c r="R20">
-        <v>46989.84753913776</v>
+        <v>70918.10586605145</v>
       </c>
       <c r="S20">
-        <v>0.01734377652088997</v>
+        <v>0.01027762246624983</v>
       </c>
       <c r="T20">
-        <v>0.01734377652088997</v>
+        <v>0.01027762246624982</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H21">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I21">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J21">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>4.995073</v>
       </c>
       <c r="O21">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P21">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q21">
-        <v>61.84724838549054</v>
+        <v>79.65495391944066</v>
       </c>
       <c r="R21">
-        <v>556.625235469415</v>
+        <v>716.8945852749659</v>
       </c>
       <c r="S21">
-        <v>0.000205448287139653</v>
+        <v>0.0001038940874911592</v>
       </c>
       <c r="T21">
-        <v>0.000205448287139653</v>
+        <v>0.0001038940874911592</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H22">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I22">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J22">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N22">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O22">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P22">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q22">
-        <v>1494.696857974149</v>
+        <v>1925.073190795697</v>
       </c>
       <c r="R22">
-        <v>13452.27172176734</v>
+        <v>17325.65871716127</v>
       </c>
       <c r="S22">
-        <v>0.004965183048238119</v>
+        <v>0.002510876130989765</v>
       </c>
       <c r="T22">
-        <v>0.00496518304823812</v>
+        <v>0.002510876130989764</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H23">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I23">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J23">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N23">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O23">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P23">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q23">
-        <v>183.964570508705</v>
+        <v>144.9385940729393</v>
       </c>
       <c r="R23">
-        <v>1655.681134578345</v>
+        <v>1304.447346656454</v>
       </c>
       <c r="S23">
-        <v>0.0006111056981843381</v>
+        <v>0.0001890436467854693</v>
       </c>
       <c r="T23">
-        <v>0.000611105698184338</v>
+        <v>0.0001890436467854692</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H24">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I24">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J24">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N24">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O24">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P24">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q24">
-        <v>804.88214557037</v>
+        <v>1167.61715755867</v>
       </c>
       <c r="R24">
-        <v>7243.93931013333</v>
+        <v>10508.55441802803</v>
       </c>
       <c r="S24">
-        <v>0.002673710835541642</v>
+        <v>0.001522924980237449</v>
       </c>
       <c r="T24">
-        <v>0.002673710835541641</v>
+        <v>0.001522924980237449</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H25">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I25">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J25">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N25">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O25">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P25">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q25">
-        <v>2002.95547853529</v>
+        <v>5907.636032567233</v>
       </c>
       <c r="R25">
-        <v>18026.59930681761</v>
+        <v>53168.7242931051</v>
       </c>
       <c r="S25">
-        <v>0.006653550206747737</v>
+        <v>0.007705339399909791</v>
       </c>
       <c r="T25">
-        <v>0.006653550206747737</v>
+        <v>0.007705339399909789</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H26">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I26">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J26">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N26">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O26">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P26">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q26">
-        <v>56567.53761710747</v>
+        <v>70534.86092752729</v>
       </c>
       <c r="R26">
-        <v>509107.8385539673</v>
+        <v>634813.7483477456</v>
       </c>
       <c r="S26">
-        <v>0.1879097941222085</v>
+        <v>0.0919987351921969</v>
       </c>
       <c r="T26">
-        <v>0.1879097941222085</v>
+        <v>0.0919987351921969</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H27">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I27">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J27">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>4.995073</v>
       </c>
       <c r="O27">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P27">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q27">
-        <v>670.0791893359952</v>
+        <v>713.020451611823</v>
       </c>
       <c r="R27">
-        <v>6030.712704023957</v>
+        <v>6417.184064506407</v>
       </c>
       <c r="S27">
-        <v>0.002225913444668368</v>
+        <v>0.0009299937485076482</v>
       </c>
       <c r="T27">
-        <v>0.002225913444668368</v>
+        <v>0.000929993748507648</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H28">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I28">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J28">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N28">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O28">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P28">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q28">
-        <v>16194.17654042868</v>
+        <v>17232.03000374794</v>
       </c>
       <c r="R28">
-        <v>145747.5888638581</v>
+        <v>155088.2700337314</v>
       </c>
       <c r="S28">
-        <v>0.05379488851518185</v>
+        <v>0.02247576509391119</v>
       </c>
       <c r="T28">
-        <v>0.05379488851518185</v>
+        <v>0.02247576509391119</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H29">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I29">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J29">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N29">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O29">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P29">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q29">
-        <v>1993.149792286266</v>
+        <v>1297.398048919687</v>
       </c>
       <c r="R29">
-        <v>17938.34813057639</v>
+        <v>11676.58244027718</v>
       </c>
       <c r="S29">
-        <v>0.006620977028527519</v>
+        <v>0.001692198410429609</v>
       </c>
       <c r="T29">
-        <v>0.006620977028527517</v>
+        <v>0.001692198410429609</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H30">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I30">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J30">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N30">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O30">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P30">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q30">
-        <v>8720.432835639924</v>
+        <v>10451.76567215372</v>
       </c>
       <c r="R30">
-        <v>78483.89552075931</v>
+        <v>94065.89104938344</v>
       </c>
       <c r="S30">
-        <v>0.02896811153233005</v>
+        <v>0.01363225516743175</v>
       </c>
       <c r="T30">
-        <v>0.02896811153233004</v>
+        <v>0.01363225516743174</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H31">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I31">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J31">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N31">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O31">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P31">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q31">
-        <v>21700.86492720806</v>
+        <v>52881.39788718549</v>
       </c>
       <c r="R31">
-        <v>195307.7843448725</v>
+        <v>475932.5809846694</v>
       </c>
       <c r="S31">
-        <v>0.07208737082294861</v>
+        <v>0.06897329429507291</v>
       </c>
       <c r="T31">
-        <v>0.07208737082294861</v>
+        <v>0.06897329429507289</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H32">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I32">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J32">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N32">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O32">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P32">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q32">
-        <v>27017.36046716206</v>
+        <v>83993.52174512118</v>
       </c>
       <c r="R32">
-        <v>243156.2442044585</v>
+        <v>755941.6957060907</v>
       </c>
       <c r="S32">
-        <v>0.08974805793163171</v>
+        <v>0.1095528886464954</v>
       </c>
       <c r="T32">
-        <v>0.08974805793163169</v>
+        <v>0.1095528886464954</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H33">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I33">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J33">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>4.995073</v>
       </c>
       <c r="O33">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P33">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q33">
-        <v>320.0381661011045</v>
+        <v>849.0709135828347</v>
       </c>
       <c r="R33">
-        <v>2880.343494909941</v>
+        <v>7641.638222245512</v>
       </c>
       <c r="S33">
-        <v>0.001063123983058445</v>
+        <v>0.001107444589964719</v>
       </c>
       <c r="T33">
-        <v>0.001063123983058445</v>
+        <v>0.001107444589964719</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H34">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I34">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J34">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N34">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O34">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P34">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q34">
-        <v>7734.540400593692</v>
+        <v>20520.05019644863</v>
       </c>
       <c r="R34">
-        <v>69610.86360534323</v>
+        <v>184680.4517680377</v>
       </c>
       <c r="S34">
-        <v>0.02569310872506355</v>
+        <v>0.02676433524258805</v>
       </c>
       <c r="T34">
-        <v>0.02569310872506355</v>
+        <v>0.02676433524258805</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H35">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I35">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J35">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N35">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O35">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P35">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q35">
-        <v>951.9531638047069</v>
+        <v>1544.952804911326</v>
       </c>
       <c r="R35">
-        <v>8567.578474242362</v>
+        <v>13904.57524420193</v>
       </c>
       <c r="S35">
-        <v>0.003162261087539883</v>
+        <v>0.002015084486088624</v>
       </c>
       <c r="T35">
-        <v>0.003162261087539882</v>
+        <v>0.002015084486088624</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H36">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I36">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J36">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N36">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O36">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P36">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q36">
-        <v>4164.987327977798</v>
+        <v>12446.05285549444</v>
       </c>
       <c r="R36">
-        <v>37484.88595180018</v>
+        <v>112014.47569945</v>
       </c>
       <c r="S36">
-        <v>0.01383553084137119</v>
+        <v>0.01623340722280857</v>
       </c>
       <c r="T36">
-        <v>0.01383553084137118</v>
+        <v>0.01623340722280857</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H37">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I37">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J37">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N37">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O37">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P37">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q37">
-        <v>10364.60335530431</v>
+        <v>62971.62544792489</v>
       </c>
       <c r="R37">
-        <v>93281.43019773877</v>
+        <v>566744.6290313239</v>
       </c>
       <c r="S37">
-        <v>0.03442982609277616</v>
+        <v>0.08213399470877703</v>
       </c>
       <c r="T37">
-        <v>0.03442982609277615</v>
+        <v>0.08213399470877701</v>
       </c>
     </row>
   </sheetData>
